--- a/2016년 재료비 8월/생명과학 재료비.xlsx
+++ b/2016년 재료비 8월/생명과학 재료비.xlsx
@@ -309,10 +309,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>황유민</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1반</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -361,10 +357,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>엄택정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>임현성</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -514,6 +506,14 @@
   </si>
   <si>
     <t>김재민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄태정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>황유인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -967,14 +967,14 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.875" style="4" customWidth="1"/>
@@ -1113,16 +1113,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="9">
         <v>24</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="12">
         <v>9000</v>
@@ -1281,7 +1281,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>83</v>
@@ -1290,7 +1290,7 @@
         <v>21</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F15" s="12">
         <v>9000</v>
@@ -1365,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>25</v>
@@ -1374,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="12">
         <v>9000</v>
@@ -1416,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F21" s="12">
         <v>9000</v>
@@ -1437,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="12">
         <v>9000</v>
@@ -1452,13 +1452,13 @@
         <v>29</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="9">
         <v>3</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23" s="12">
         <v>9000</v>
@@ -1494,13 +1494,13 @@
         <v>29</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="9">
         <v>9</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F25" s="12">
         <v>9000</v>
@@ -1512,16 +1512,16 @@
         <v>7</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="9">
         <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F26" s="12">
         <v>9000</v>
@@ -1533,16 +1533,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="9">
         <v>13</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F27" s="12">
         <v>9000</v>
@@ -1584,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F29" s="12">
         <v>9000</v>
@@ -1725,13 +1725,13 @@
         <v>29</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="9">
         <v>10</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F36" s="12">
         <v>9000</v>
@@ -1767,13 +1767,13 @@
         <v>29</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="9">
         <v>19</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F38" s="12">
         <v>9000</v>
@@ -1857,7 +1857,7 @@
         <v>24</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" s="12">
         <v>9000</v>
@@ -1878,7 +1878,7 @@
         <v>26</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F43" s="12">
         <v>9000</v>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F44" s="12">
         <v>9000</v>
@@ -2004,7 +2004,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="F49" s="12">
         <v>9000</v>
@@ -2046,7 +2046,7 @@
         <v>19</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F51" s="12">
         <v>9000</v>
@@ -2088,7 +2088,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F53" s="12">
         <v>9000</v>
@@ -2109,7 +2109,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F54" s="12">
         <v>9000</v>
@@ -2130,7 +2130,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F55" s="12">
         <v>9000</v>
@@ -2151,7 +2151,7 @@
         <v>17</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F56" s="12">
         <v>9000</v>
@@ -2172,7 +2172,7 @@
         <v>21</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F57" s="12">
         <v>9000</v>
@@ -2193,7 +2193,7 @@
         <v>25</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F58" s="12">
         <v>9000</v>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F65" s="12">
         <v>9000</v>
@@ -2382,7 +2382,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F67" s="12">
         <v>9000</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F70" s="12">
         <v>9000</v>
@@ -2466,7 +2466,7 @@
         <v>9</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F71" s="12">
         <v>9000</v>
@@ -2509,7 +2509,7 @@
         <v>16</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F73" s="12">
         <v>9000</v>
@@ -2553,7 +2553,7 @@
         <v>22</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F75" s="12">
         <v>9000</v>
@@ -2575,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F76" s="12">
         <v>9000</v>
@@ -2619,7 +2619,7 @@
         <v>6</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F78" s="12">
         <v>9000</v>
@@ -2684,7 +2684,7 @@
         <v>23</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F81" s="12">
         <v>9000</v>
@@ -2726,7 +2726,7 @@
         <v>23</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F83" s="12">
         <v>9000</v>
@@ -2747,7 +2747,7 @@
         <v>27</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="F84" s="12">
         <v>9000</v>
@@ -2762,13 +2762,13 @@
         <v>59</v>
       </c>
       <c r="C85" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="9">
+        <v>7</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="D85" s="9">
-        <v>7</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="F85" s="12">
         <v>9000</v>
@@ -2804,13 +2804,13 @@
         <v>59</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D87" s="9">
         <v>11</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F87" s="12">
         <v>9000</v>
@@ -2822,7 +2822,7 @@
         <v>7</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>19</v>
@@ -2831,7 +2831,7 @@
         <v>7</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F88" s="12">
         <v>9000</v>
@@ -2852,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F89" s="12">
         <v>9000</v>
@@ -2915,7 +2915,7 @@
         <v>17</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F92" s="12">
         <v>9000</v>
@@ -2936,7 +2936,7 @@
         <v>25</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F93" s="12">
         <v>9000</v>
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F94" s="12">
         <v>9000</v>
@@ -3053,7 +3053,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>83</v>
@@ -3062,7 +3062,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F99" s="12">
         <v>9000</v>
@@ -3104,7 +3104,7 @@
         <v>2</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F101" s="12">
         <v>9000</v>
@@ -3167,7 +3167,7 @@
         <v>15</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F104" s="12">
         <v>9000</v>
@@ -3179,7 +3179,7 @@
         <v>7</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>85</v>
@@ -3188,7 +3188,7 @@
         <v>17</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F105" s="12">
         <v>9000</v>
@@ -3200,7 +3200,7 @@
         <v>7</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>91</v>
@@ -3209,7 +3209,7 @@
         <v>17</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F106" s="12">
         <v>9000</v>

--- a/2016년 재료비 8월/생명과학 재료비.xlsx
+++ b/2016년 재료비 8월/생명과학 재료비.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="19440" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
   </bookViews>
   <sheets>
-    <sheet name="방학생명재료비 " sheetId="4" r:id="rId1"/>
+    <sheet name="방학생명재료비 " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="128">
   <si>
     <t>*주야</t>
   </si>
@@ -52,6 +52,9 @@
     <t>김민주</t>
   </si>
   <si>
+    <t>자유수강대상자</t>
+  </si>
+  <si>
     <t>박성준</t>
   </si>
   <si>
@@ -61,9 +64,15 @@
     <t>최정명</t>
   </si>
   <si>
+    <t>최하영</t>
+  </si>
+  <si>
     <t>2반</t>
   </si>
   <si>
+    <t>곽민경</t>
+  </si>
+  <si>
     <t>전단비</t>
   </si>
   <si>
@@ -76,12 +85,18 @@
     <t>3반</t>
   </si>
   <si>
+    <t>김나영</t>
+  </si>
+  <si>
     <t>이수호</t>
   </si>
   <si>
     <t>이채원</t>
   </si>
   <si>
+    <t>최민영</t>
+  </si>
+  <si>
     <t>4반</t>
   </si>
   <si>
@@ -97,18 +112,45 @@
     <t>오승현</t>
   </si>
   <si>
+    <t>이은빈</t>
+  </si>
+  <si>
     <t>홍윤수</t>
   </si>
   <si>
     <t>6반</t>
   </si>
   <si>
+    <t>권용준</t>
+  </si>
+  <si>
+    <t>김주희</t>
+  </si>
+  <si>
     <t>2학년</t>
   </si>
   <si>
+    <t>구하준</t>
+  </si>
+  <si>
+    <t>김기범</t>
+  </si>
+  <si>
+    <t>김준희</t>
+  </si>
+  <si>
+    <t>박민서</t>
+  </si>
+  <si>
+    <t>오은지</t>
+  </si>
+  <si>
     <t>윤수빈</t>
   </si>
   <si>
+    <t>이영주</t>
+  </si>
+  <si>
     <t>최서윤</t>
   </si>
   <si>
@@ -127,15 +169,30 @@
     <t>김건형</t>
   </si>
   <si>
+    <t>김해슬</t>
+  </si>
+  <si>
     <t>변시우</t>
   </si>
   <si>
+    <t>이강희</t>
+  </si>
+  <si>
     <t>최은림</t>
   </si>
   <si>
     <t>박예은</t>
   </si>
   <si>
+    <t>최시후</t>
+  </si>
+  <si>
+    <t>홍윤성</t>
+  </si>
+  <si>
+    <t>김경민</t>
+  </si>
+  <si>
     <t>김소희</t>
   </si>
   <si>
@@ -148,12 +205,36 @@
     <t>김태은</t>
   </si>
   <si>
+    <t>엄태정</t>
+  </si>
+  <si>
     <t>이원희</t>
   </si>
   <si>
+    <t>임현성</t>
+  </si>
+  <si>
     <t>장현호</t>
   </si>
   <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>나문채</t>
+  </si>
+  <si>
+    <t>박소민</t>
+  </si>
+  <si>
+    <t>송희근</t>
+  </si>
+  <si>
+    <t>장예원</t>
+  </si>
+  <si>
+    <t>한채연</t>
+  </si>
+  <si>
     <t>허은제</t>
   </si>
   <si>
@@ -175,33 +256,96 @@
     <t>제갈현</t>
   </si>
   <si>
+    <t>고경범</t>
+  </si>
+  <si>
     <t>김사랑</t>
   </si>
   <si>
+    <t>김유하</t>
+  </si>
+  <si>
+    <t>윤하영</t>
+  </si>
+  <si>
+    <t>이서윤</t>
+  </si>
+  <si>
+    <t>강성철</t>
+  </si>
+  <si>
+    <t>박재성</t>
+  </si>
+  <si>
+    <t>신우원</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
     <t>이지수</t>
   </si>
   <si>
+    <t>임종빈</t>
+  </si>
+  <si>
+    <t>권지영</t>
+  </si>
+  <si>
     <t>김나연</t>
   </si>
   <si>
+    <t>김재민</t>
+  </si>
+  <si>
     <t>서한샘</t>
   </si>
   <si>
     <t>이태건</t>
   </si>
   <si>
+    <t>정준섭</t>
+  </si>
+  <si>
     <t>최예소</t>
   </si>
   <si>
+    <t>지수헌</t>
+  </si>
+  <si>
+    <t>황유인</t>
+  </si>
+  <si>
     <t>4학년</t>
   </si>
   <si>
+    <t>김예은</t>
+  </si>
+  <si>
     <t>김서희</t>
   </si>
   <si>
+    <t>김지영</t>
+  </si>
+  <si>
+    <t>박연주</t>
+  </si>
+  <si>
+    <t>심기현</t>
+  </si>
+  <si>
     <t>나윤채</t>
   </si>
   <si>
+    <t>양인서</t>
+  </si>
+  <si>
+    <t>최예선</t>
+  </si>
+  <si>
+    <t>최용준</t>
+  </si>
+  <si>
     <t>손예나</t>
   </si>
   <si>
@@ -217,15 +361,30 @@
     <t>최재원</t>
   </si>
   <si>
+    <t>김동인</t>
+  </si>
+  <si>
     <t>최승림</t>
   </si>
   <si>
+    <t>고도영</t>
+  </si>
+  <si>
     <t>이승민</t>
   </si>
   <si>
     <t>김서하</t>
   </si>
   <si>
+    <t>이서정</t>
+  </si>
+  <si>
+    <t>이총명</t>
+  </si>
+  <si>
+    <t>장유리</t>
+  </si>
+  <si>
     <t>정서헌</t>
   </si>
   <si>
@@ -239,289 +398,13 @@
   </si>
   <si>
     <t>제갈영</t>
-  </si>
-  <si>
-    <t>1학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>곽민경</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김나영</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김기범</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김나영</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤하영</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이서윤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>신우원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김예은</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이서정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이총명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이은빈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>김주희</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>구하준</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박민서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>최시후</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>임현성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>장예원</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>박소민</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고경범</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>김유하</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>박재성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이시은</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>임종빈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>지수헌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2반</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김지영</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4학년</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박연주</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>심기현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>최예선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>양인서</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>최용준</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>고도영</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>최하영</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>최민영</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>권용준</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>김준희</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>오은지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>김해슬</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍윤성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>김경민</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>나문채</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>송희근</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>한채연</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이강희</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>권지영</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>정준섭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>장유리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이영주</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>강성철</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄태정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>황유인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,20 +429,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="굴림체"/>
@@ -572,6 +441,13 @@
       <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -628,47 +504,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -972,10 +849,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11" style="14" customWidth="1"/>
+    <col min="3" max="4" width="11.125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="14" customWidth="1"/>
     <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.875" style="4" customWidth="1"/>
   </cols>
@@ -1043,7 +920,9 @@
       <c r="F3" s="12">
         <v>9000</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
@@ -1059,7 +938,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="12">
         <v>9000</v>
@@ -1080,12 +959,14 @@
         <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="12">
         <v>9000</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
@@ -1101,7 +982,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="12">
         <v>9000</v>
@@ -1113,16 +994,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D7" s="9">
         <v>24</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F7" s="12">
         <v>9000</v>
@@ -1134,16 +1015,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="D8" s="9">
         <v>2</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F8" s="12">
         <v>9000</v>
@@ -1158,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" s="6">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" s="12">
         <v>9000</v>
@@ -1179,13 +1060,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6">
         <v>19</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F10" s="12">
         <v>9000</v>
@@ -1200,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="6">
         <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F11" s="12">
         <v>9000</v>
@@ -1218,16 +1099,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D12" s="9">
         <v>2</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="F12" s="12">
         <v>9000</v>
@@ -1242,13 +1123,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" s="6">
         <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F13" s="12">
         <v>9000</v>
@@ -1263,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6">
         <v>17</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F14" s="12">
         <v>9000</v>
@@ -1281,16 +1162,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D15" s="9">
         <v>21</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="F15" s="12">
         <v>9000</v>
@@ -1305,13 +1186,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16" s="7">
         <v>5</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F16" s="12">
         <v>9000</v>
@@ -1326,13 +1207,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D17" s="7">
         <v>6</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F17" s="12">
         <v>9000</v>
@@ -1347,13 +1228,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D18" s="6">
         <v>16</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F18" s="12">
         <v>9000</v>
@@ -1365,16 +1246,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D19" s="9">
         <v>19</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="F19" s="12">
         <v>9000</v>
@@ -1389,13 +1270,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D20" s="6">
         <v>25</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F20" s="12">
         <v>9000</v>
@@ -1410,13 +1291,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D21" s="9">
         <v>5</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="F21" s="12">
         <v>9000</v>
@@ -1431,13 +1312,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D22" s="9">
         <v>7</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="F22" s="12">
         <v>9000</v>
@@ -1449,16 +1330,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D23" s="9">
         <v>3</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F23" s="12">
         <v>9000</v>
@@ -1470,16 +1351,16 @@
         <v>7</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D24" s="9">
         <v>5</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F24" s="12">
         <v>9000</v>
@@ -1491,16 +1372,16 @@
         <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D25" s="9">
         <v>9</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="F25" s="12">
         <v>9000</v>
@@ -1512,16 +1393,16 @@
         <v>7</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D26" s="9">
         <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="F26" s="12">
         <v>9000</v>
@@ -1533,16 +1414,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D27" s="9">
         <v>13</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F27" s="12">
         <v>9000</v>
@@ -1554,7 +1435,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>9</v>
@@ -1563,28 +1444,30 @@
         <v>15</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F28" s="12">
         <v>9000</v>
       </c>
-      <c r="G28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D29" s="9">
         <v>17</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="F29" s="12">
         <v>9000</v>
@@ -1596,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>9</v>
@@ -1605,7 +1488,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F30" s="12">
         <v>9000</v>
@@ -1617,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>9</v>
@@ -1626,28 +1509,30 @@
         <v>22</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F31" s="12">
         <v>9000</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F32" s="12">
         <v>9000</v>
@@ -1659,16 +1544,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33" s="6">
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F33" s="12">
         <v>9000</v>
@@ -1680,16 +1565,16 @@
         <v>7</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" s="6">
         <v>3</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F34" s="12">
         <v>9000</v>
@@ -1701,16 +1586,16 @@
         <v>7</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D35" s="6">
         <v>4</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F35" s="12">
         <v>9000</v>
@@ -1722,16 +1607,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D36" s="9">
         <v>10</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="F36" s="12">
         <v>9000</v>
@@ -1743,16 +1628,16 @@
         <v>7</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D37" s="6">
         <v>14</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F37" s="12">
         <v>9000</v>
@@ -1764,16 +1649,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D38" s="9">
         <v>19</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="F38" s="12">
         <v>9000</v>
@@ -1785,37 +1670,39 @@
         <v>7</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D39" s="6">
         <v>26</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F39" s="12">
         <v>9000</v>
       </c>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D40" s="9">
         <v>3</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="F40" s="12">
         <v>9000</v>
@@ -1827,16 +1714,16 @@
         <v>7</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D41" s="6">
         <v>11</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F41" s="12">
         <v>9000</v>
@@ -1848,16 +1735,16 @@
         <v>7</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D42" s="9">
         <v>24</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="F42" s="12">
         <v>9000</v>
@@ -1869,16 +1756,16 @@
         <v>7</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D43" s="9">
         <v>26</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="F43" s="12">
         <v>9000</v>
@@ -1890,16 +1777,16 @@
         <v>7</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D44" s="9">
         <v>1</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="F44" s="12">
         <v>9000</v>
@@ -1911,16 +1798,16 @@
         <v>7</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D45" s="6">
         <v>2</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F45" s="12">
         <v>9000</v>
@@ -1932,16 +1819,16 @@
         <v>7</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D46" s="6">
         <v>4</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F46" s="12">
         <v>9000</v>
@@ -1953,37 +1840,39 @@
         <v>7</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D47" s="6">
         <v>6</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F47" s="12">
         <v>9000</v>
       </c>
-      <c r="G47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D48" s="6">
         <v>7</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F48" s="12">
         <v>9000</v>
@@ -1995,16 +1884,16 @@
         <v>7</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D49" s="9">
         <v>11</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="F49" s="12">
         <v>9000</v>
@@ -2016,16 +1905,16 @@
         <v>7</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D50" s="6">
         <v>16</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F50" s="12">
         <v>9000</v>
@@ -2037,16 +1926,16 @@
         <v>7</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D51" s="9">
         <v>19</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F51" s="12">
         <v>9000</v>
@@ -2058,16 +1947,16 @@
         <v>7</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D52" s="6">
         <v>21</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F52" s="12">
         <v>9000</v>
@@ -2079,16 +1968,16 @@
         <v>7</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D53" s="9">
         <v>5</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="F53" s="12">
         <v>9000</v>
@@ -2100,16 +1989,16 @@
         <v>7</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D54" s="9">
         <v>10</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="F54" s="12">
         <v>9000</v>
@@ -2121,16 +2010,16 @@
         <v>7</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D55" s="9">
         <v>11</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="F55" s="12">
         <v>9000</v>
@@ -2142,16 +2031,16 @@
         <v>7</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D56" s="9">
         <v>17</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="F56" s="12">
         <v>9000</v>
@@ -2163,16 +2052,16 @@
         <v>7</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9">
         <v>21</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="F57" s="12">
         <v>9000</v>
@@ -2184,16 +2073,16 @@
         <v>7</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D58" s="9">
         <v>25</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="F58" s="12">
         <v>9000</v>
@@ -2205,28 +2094,30 @@
         <v>7</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" s="6">
         <v>26</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F59" s="12">
         <v>9000</v>
       </c>
-      <c r="G59" s="6"/>
+      <c r="G59" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>9</v>
@@ -2235,19 +2126,21 @@
         <v>9</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F60" s="12">
         <v>9000</v>
       </c>
-      <c r="G60" s="6"/>
+      <c r="G60" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>9</v>
@@ -2256,7 +2149,7 @@
         <v>16</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F61" s="12">
         <v>9000</v>
@@ -2268,7 +2161,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>9</v>
@@ -2277,7 +2170,7 @@
         <v>17</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="F62" s="12">
         <v>9000</v>
@@ -2289,7 +2182,7 @@
         <v>7</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>9</v>
@@ -2298,7 +2191,7 @@
         <v>19</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F63" s="12">
         <v>9000</v>
@@ -2310,16 +2203,16 @@
         <v>7</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D64" s="6">
         <v>22</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F64" s="12">
         <v>9000</v>
@@ -2331,16 +2224,16 @@
         <v>7</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D65" s="9">
         <v>1</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F65" s="12">
         <v>9000</v>
@@ -2352,16 +2245,16 @@
         <v>7</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D66" s="6">
         <v>3</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F66" s="12">
         <v>9000</v>
@@ -2373,16 +2266,16 @@
         <v>7</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D67" s="9">
         <v>4</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F67" s="12">
         <v>9000</v>
@@ -2394,16 +2287,16 @@
         <v>7</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D68" s="9">
         <v>13</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F68" s="12">
         <v>9000</v>
@@ -2415,16 +2308,16 @@
         <v>7</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D69" s="9">
         <v>15</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="12">
         <v>9000</v>
@@ -2436,16 +2329,16 @@
         <v>7</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D70" s="9">
         <v>1</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F70" s="12">
         <v>9000</v>
@@ -2457,16 +2350,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D71" s="9">
         <v>9</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="F71" s="12">
         <v>9000</v>
@@ -2478,16 +2371,16 @@
         <v>7</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D72" s="9">
         <v>11</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F72" s="12">
         <v>9000</v>
@@ -2500,16 +2393,16 @@
         <v>7</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D73" s="9">
         <v>16</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F73" s="12">
         <v>9000</v>
@@ -2522,16 +2415,16 @@
         <v>7</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D74" s="6">
         <v>20</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F74" s="12">
         <v>9000</v>
@@ -2544,16 +2437,16 @@
         <v>7</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D75" s="9">
         <v>22</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F75" s="12">
         <v>9000</v>
@@ -2566,16 +2459,16 @@
         <v>7</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D76" s="9">
         <v>3</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="F76" s="12">
         <v>9000</v>
@@ -2588,21 +2481,23 @@
         <v>7</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D77" s="6">
         <v>4</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F77" s="12">
         <v>9000</v>
       </c>
-      <c r="G77" s="6"/>
+      <c r="G77" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="H77" s="5"/>
     </row>
     <row r="78" spans="1:8">
@@ -2610,16 +2505,16 @@
         <v>7</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9">
         <v>6</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="F78" s="12">
         <v>9000</v>
@@ -2632,21 +2527,23 @@
         <v>7</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D79" s="6">
         <v>13</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="F79" s="12">
         <v>9000</v>
       </c>
-      <c r="G79" s="6"/>
+      <c r="G79" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="H79" s="5"/>
     </row>
     <row r="80" spans="1:8">
@@ -2654,16 +2551,16 @@
         <v>7</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D80" s="6">
         <v>19</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F80" s="12">
         <v>9000</v>
@@ -2675,16 +2572,16 @@
         <v>7</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D81" s="9">
         <v>23</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="F81" s="12">
         <v>9000</v>
@@ -2696,16 +2593,16 @@
         <v>7</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D82" s="6">
         <v>26</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F82" s="12">
         <v>9000</v>
@@ -2717,16 +2614,16 @@
         <v>7</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D83" s="9">
         <v>23</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F83" s="12">
         <v>9000</v>
@@ -2738,16 +2635,16 @@
         <v>7</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D84" s="9">
         <v>27</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="F84" s="12">
         <v>9000</v>
@@ -2759,16 +2656,16 @@
         <v>7</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D85" s="9">
         <v>7</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F85" s="12">
         <v>9000</v>
@@ -2780,16 +2677,16 @@
         <v>7</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D86" s="6">
         <v>7</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="F86" s="12">
         <v>9000</v>
@@ -2801,16 +2698,16 @@
         <v>7</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="D87" s="9">
         <v>11</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F87" s="12">
         <v>9000</v>
@@ -2822,16 +2719,16 @@
         <v>7</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D88" s="9">
         <v>7</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F88" s="12">
         <v>9000</v>
@@ -2843,16 +2740,16 @@
         <v>7</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D89" s="9">
         <v>12</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F89" s="12">
         <v>9000</v>
@@ -2864,16 +2761,16 @@
         <v>7</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D90" s="6">
         <v>6</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F90" s="12">
         <v>9000</v>
@@ -2885,16 +2782,16 @@
         <v>7</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D91" s="6">
         <v>8</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F91" s="12">
         <v>9000</v>
@@ -2906,16 +2803,16 @@
         <v>7</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D92" s="9">
         <v>17</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F92" s="12">
         <v>9000</v>
@@ -2927,16 +2824,16 @@
         <v>7</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D93" s="9">
         <v>25</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F93" s="12">
         <v>9000</v>
@@ -2948,16 +2845,16 @@
         <v>7</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D94" s="9">
         <v>26</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F94" s="12">
         <v>9000</v>
@@ -2969,16 +2866,16 @@
         <v>7</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D95" s="6">
         <v>13</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="F95" s="12">
         <v>9000</v>
@@ -2990,7 +2887,7 @@
         <v>7</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>9</v>
@@ -2999,7 +2896,7 @@
         <v>25</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="F96" s="12">
         <v>9000</v>
@@ -3011,16 +2908,16 @@
         <v>7</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D97" s="6">
         <v>13</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="F97" s="12">
         <v>9000</v>
@@ -3032,16 +2929,16 @@
         <v>7</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D98" s="6">
         <v>20</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="F98" s="12">
         <v>9000</v>
@@ -3053,16 +2950,16 @@
         <v>7</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D99" s="9">
         <v>5</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F99" s="12">
         <v>9000</v>
@@ -3074,37 +2971,39 @@
         <v>7</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D100" s="6">
         <v>23</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="F100" s="12">
         <v>9000</v>
       </c>
-      <c r="G100" s="6"/>
+      <c r="G100" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="D101" s="9">
         <v>2</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F101" s="12">
         <v>9000</v>
@@ -3116,16 +3015,16 @@
         <v>7</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D102" s="6">
         <v>16</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="F102" s="12">
         <v>9000</v>
@@ -3137,16 +3036,16 @@
         <v>7</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D103" s="6">
         <v>6</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="F103" s="12">
         <v>9000</v>
@@ -3158,16 +3057,16 @@
         <v>7</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D104" s="9">
         <v>15</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="F104" s="12">
         <v>9000</v>
@@ -3179,16 +3078,16 @@
         <v>7</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D105" s="9">
         <v>17</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F105" s="12">
         <v>9000</v>
@@ -3200,16 +3099,16 @@
         <v>7</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D106" s="9">
         <v>17</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F106" s="12">
         <v>9000</v>
@@ -3221,16 +3120,16 @@
         <v>7</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D107" s="6">
         <v>19</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="F107" s="12">
         <v>9000</v>
@@ -3242,37 +3141,39 @@
         <v>7</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D108" s="6">
         <v>15</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="F108" s="12">
         <v>9000</v>
       </c>
-      <c r="G108" s="6"/>
+      <c r="G108" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D109" s="6">
         <v>16</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F109" s="12">
         <v>9000</v>
@@ -3284,16 +3185,16 @@
         <v>7</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D110" s="6">
         <v>24</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="F110" s="12">
         <v>9000</v>
@@ -3307,13 +3208,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G110">
-    <sortCondition ref="B2:B110"/>
-    <sortCondition ref="C2:C110"/>
-    <sortCondition ref="D2:D110"/>
-  </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>